--- a/Report/api.xlsx
+++ b/Report/api.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\auto_http_api\Report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -14,61 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.210.206.201:8000/myapi/get_shop_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.210.206.201:8000/myapi/shop_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>protocol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.101:9999/api/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.101:9999/api/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id": 7}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":"1001"}</t>
+    <t>{"name": "123","price":100,"address":"222"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,19 +77,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"id": "123"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id": "101","name":["test1","test2","test3"],"token": "aasss"}</t>
+    <t>"msg":"success"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1|"msg":"success"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +168,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -213,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,9 +254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +289,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,79 +465,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="24.25" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="24.25" style="5"/>
+    <col min="1" max="1" width="24.25" style="5"/>
+    <col min="2" max="2" width="45" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="5"/>
     <col min="4" max="4" width="57.125" style="5" customWidth="1"/>
     <col min="5" max="6" width="24.25" style="5"/>
     <col min="7" max="16384" width="24.25" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
